--- a/01.設計/画面設計_ARアプリ.xlsx
+++ b/01.設計/画面設計_ARアプリ.xlsx
@@ -196,16 +196,6 @@
     <t>リンク・フォーム要素</t>
     <rPh sb="8" eb="10">
       <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面項目一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ガメントウモク</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>コウモクイチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -271,13 +261,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理説明</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -586,6 +569,26 @@
 モーダル ダイアログ</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目一覧・レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>コウモクイチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>状態フロー図</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -803,7 +806,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -839,8 +842,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -960,8 +969,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="41">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -979,6 +1003,9 @@
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -997,6 +1024,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1630,17 +1660,409 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88901</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1282701</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308101" y="14427200"/>
+          <a:ext cx="1447800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>画面遷移時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1854200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4851400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="14427200"/>
+          <a:ext cx="2997200" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>アルバム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力ダイアログで値を入力時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>192207</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>151454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1684,13 +2106,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>99479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>240873</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>11611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1822,13 +2244,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>159804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>901273</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>71936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1960,13 +2382,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>156629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161498</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>68761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2098,13 +2520,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>172504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>745698</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>84636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2236,13 +2658,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>166154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>891748</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>78286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2374,13 +2796,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>900389</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>58594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2173074</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>17598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2421,13 +2843,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>808263</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>58995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2211211</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>199727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2566,13 +2988,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>305102</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>73111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1568637</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>215077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2732,13 +3154,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936870</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>164181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4144914</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>215077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2792,13 +3214,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2881379</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>207498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4144914</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>120864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2993,13 +3415,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1286319</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>193470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2289220</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>134893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3184,13 +3606,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121528</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>100360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1752210</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>27208</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3350,13 +3772,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936869</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>27208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936870</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>73111</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3400,13 +3822,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>992030</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>177261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1443537</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>194882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3548,13 +3970,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1752210</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>164181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4144914</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>178084</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3600,13 +4022,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1755757</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>132828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2207264</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>150449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3748,13 +4170,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>405614</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>74970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1468125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>41939</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3926,13 +4348,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>976756</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>41759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1709540</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>213269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,13 +4493,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936870</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>134893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936870</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>74970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4128,13 +4550,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936869</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>41939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936870</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>100360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4185,13 +4607,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>791785</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>164182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1286319</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>164182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4242,13 +4664,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>185512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1144493</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>203133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4387,13 +4809,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>89824</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>5956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>791785</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>93807</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4544,6 +4966,1184 @@
             </a:solidFill>
             <a:latin typeface="+mn-ea"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5232399</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>220823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="14998700"/>
+          <a:ext cx="3035299" cy="855823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>② </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>指定したアルバムのマーカー画像保持</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>アルバム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>入力値</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>マーカー画像 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>指定のアルバム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>220823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="14770100"/>
+          <a:ext cx="3263900" cy="855823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>① </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>チュートリアル／前回のアルバムのマーカー画像保持</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>アルバム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>初期値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>／前回入力値</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>マーカー画像 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>チュートリアル／前回のアルバム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{68741BD4-0677-4B59-A353-2FDB9E10CF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="15198012"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5232399</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{68741BD4-0677-4B59-A353-2FDB9E10CF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407399" y="15426612"/>
+          <a:ext cx="965201" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="14846300"/>
+          <a:ext cx="1028700" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>AR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>用カメラ起動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Elbow Connector 173"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="15198012"/>
+          <a:ext cx="4584700" cy="829388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9003"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4533900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>131921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708900" y="15748000"/>
+          <a:ext cx="2133600" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>トリガー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>: AR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>用カメラ起動ボタン押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Elbow Connector 173"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="15198012"/>
+          <a:ext cx="241300" cy="1045288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>196910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="16344900"/>
+          <a:ext cx="2374900" cy="400110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>トリガー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>操作のない状態で時間経過</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(Android OS)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t> バックグラウンド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4911,7 +6511,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4922,7 +6522,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -4933,7 +6533,7 @@
     </row>
     <row r="3" spans="1:3" ht="44">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -4944,7 +6544,7 @@
     </row>
     <row r="4" spans="1:3" ht="31">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -4955,7 +6555,7 @@
     </row>
     <row r="5" spans="1:3" ht="31">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -5027,7 +6627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F85"/>
+  <dimension ref="B2:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5044,7 +6644,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5053,12 +6653,12 @@
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5066,7 +6666,7 @@
     </row>
     <row r="7" spans="2:6" ht="54" customHeight="1">
       <c r="C7" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
@@ -5074,337 +6674,348 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2" t="s">
+    <row r="12" spans="2:6">
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="22"/>
+      <c r="F13" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="C39" s="16" t="s">
+    <row r="14" spans="2:6">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="36">
+      <c r="C18" s="8">
+        <v>6</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="C47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>16</v>
+      <c r="D47" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="C40" s="4">
+    <row r="48" spans="2:6" ht="135">
+      <c r="C48" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>24</v>
+      <c r="D48" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="19">
+        <v>100014</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="4">
+    <row r="49" spans="3:6" ht="70">
+      <c r="C49" s="8">
         <v>2</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="D49" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="35"/>
     </row>
-    <row r="42" spans="2:6">
-      <c r="C42" s="4">
-        <v>3</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="50" spans="3:6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="11"/>
     </row>
-    <row r="43" spans="2:6">
-      <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="51" spans="3:6">
+      <c r="C51" s="4"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="11"/>
     </row>
-    <row r="44" spans="2:6">
-      <c r="C44" s="4">
-        <v>5</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="52" spans="3:6">
+      <c r="C52" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
     </row>
-    <row r="45" spans="2:6" ht="36">
-      <c r="C45" s="8">
-        <v>6</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="38" t="s">
+    <row r="53" spans="3:6">
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="43"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="43"/>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="43"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="43"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="43"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="43"/>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="43"/>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="44"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="45"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="C65" s="4"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="22"/>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="22"/>
+    <row r="69" spans="2:6">
+      <c r="C69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="C50" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>49</v>
+    <row r="70" spans="2:6" ht="45" customHeight="1">
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="135">
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="18" t="s">
+    <row r="71" spans="2:6" ht="31">
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="19">
-        <v>100014</v>
+      <c r="F71" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="70">
-      <c r="C52" s="8">
-        <v>2</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="35"/>
+    <row r="74" spans="2:6">
+      <c r="C74" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
     </row>
-    <row r="53" spans="2:6">
-      <c r="C53" s="4"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="C57" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="45" customHeight="1">
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="31">
-      <c r="C59" s="8">
-        <v>2</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="C62" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="C63" s="27"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="28"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="C64" s="27"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="28"/>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="27"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="28"/>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="C66" s="27"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="27"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="28"/>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="27"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="27"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="27"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="28"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="27"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="28"/>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="27"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="28"/>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="27"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="28"/>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="C74" s="27"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="28"/>
-    </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="2:6">
       <c r="C75" s="27"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="2:6">
       <c r="C76" s="27"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="3:6">
+    <row r="77" spans="2:6">
       <c r="C77" s="27"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="28"/>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="2:6">
       <c r="C78" s="27"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="28"/>
     </row>
-    <row r="79" spans="3:6">
+    <row r="79" spans="2:6">
       <c r="C79" s="27"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="28"/>
     </row>
-    <row r="80" spans="3:6">
+    <row r="80" spans="2:6">
       <c r="C80" s="27"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -5417,19 +7028,91 @@
       <c r="F81" s="28"/>
     </row>
     <row r="82" spans="3:6">
-      <c r="C82" s="29"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="30"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="28"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="27"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="28"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="D84" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="C84" s="27"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="28"/>
     </row>
     <row r="85" spans="3:6">
-      <c r="D85" s="21" t="s">
-        <v>59</v>
+      <c r="C85" s="27"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="28"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="27"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="27"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="28"/>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="27"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="28"/>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="27"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="28"/>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="27"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="28"/>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="27"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="28"/>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="27"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="28"/>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="27"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="28"/>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" s="29"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="30"/>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="D96" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
